--- a/sydw/2020上/考点/管理.xlsx
+++ b/sydw/2020上/考点/管理.xlsx
@@ -4,17 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基础管理知识" sheetId="1" r:id="rId1"/>
+    <sheet name="公共基础管理知识" sheetId="2" r:id="rId2"/>
+    <sheet name="行政管理基础知识" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="271">
+  <si>
+    <t>基本职能</t>
+  </si>
   <si>
     <t>计划</t>
   </si>
@@ -40,9 +45,6 @@
     <t>长中短(&gt;5/1&lt;5/&lt;1)</t>
   </si>
   <si>
-    <t>基本职能</t>
-  </si>
-  <si>
     <t>按职能</t>
   </si>
   <si>
@@ -229,18 +231,18 @@
     <t>激励理论</t>
   </si>
   <si>
+    <t>控制</t>
+  </si>
+  <si>
     <t>按照计划标准来衡量所取得的成功并纠正所发生的偏差，确保计划目标的实现</t>
   </si>
   <si>
+    <t>功能</t>
+  </si>
+  <si>
     <t>监督</t>
   </si>
   <si>
-    <t>控制</t>
-  </si>
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
     <t>纠偏</t>
   </si>
   <si>
@@ -248,6 +250,585 @@
   </si>
   <si>
     <t>激励</t>
+  </si>
+  <si>
+    <t>按活动性质</t>
+  </si>
+  <si>
+    <t>预防性控制、更正性控制</t>
+  </si>
+  <si>
+    <t>按进程阶段</t>
+  </si>
+  <si>
+    <t>预先控制、过程控制、事后控制</t>
+  </si>
+  <si>
+    <t>按信息类型</t>
+  </si>
+  <si>
+    <t>反馈控制、前馈控制</t>
+  </si>
+  <si>
+    <t>按手段</t>
+  </si>
+  <si>
+    <t>直接控制、间接控制</t>
+  </si>
+  <si>
+    <t>决策</t>
+  </si>
+  <si>
+    <t>1.决策应有明确合理的目标</t>
+  </si>
+  <si>
+    <t>2.决策必须有两个或以上的备选方案，但只能采用其中一个</t>
+  </si>
+  <si>
+    <t>3.必须知道每种方案可能的结果</t>
+  </si>
+  <si>
+    <t>4.最终选的方案只能说“令人满意/足够好的”，但不是最优的</t>
+  </si>
+  <si>
+    <t>5.决策的本质是一个过程。</t>
+  </si>
+  <si>
+    <t>提出问题、收集资料、明确目标、拟定行动方案、评价选择、采取行动、实施反馈</t>
+  </si>
+  <si>
+    <t>按重要程度</t>
+  </si>
+  <si>
+    <t>战略决策、战术决策、业务决策</t>
+  </si>
+  <si>
+    <t>按问题重复程度</t>
+  </si>
+  <si>
+    <t>程序化决策、非程序化决策</t>
+  </si>
+  <si>
+    <t>按条件可控程度</t>
+  </si>
+  <si>
+    <t>确定型、风险型、不确定型</t>
+  </si>
+  <si>
+    <t>按主体不同</t>
+  </si>
+  <si>
+    <t>个人决策、群体决策</t>
+  </si>
+  <si>
+    <t>预测</t>
+  </si>
+  <si>
+    <t>立足于过去和现在，预料和推测事物的发展未来。是人类的固有行为，体现人类的主观能动性</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>定性预测</t>
+  </si>
+  <si>
+    <t>专家调查法</t>
+  </si>
+  <si>
+    <t>德尔菲法</t>
+  </si>
+  <si>
+    <t>定量预测</t>
+  </si>
+  <si>
+    <t>时间序列法</t>
+  </si>
+  <si>
+    <t>因果预测法</t>
+  </si>
+  <si>
+    <t>心理效应</t>
+  </si>
+  <si>
+    <t>光环效应</t>
+  </si>
+  <si>
+    <t>投射效应</t>
+  </si>
+  <si>
+    <t>首因效应</t>
+  </si>
+  <si>
+    <t>乐队效应</t>
+  </si>
+  <si>
+    <t>近因效应</t>
+  </si>
+  <si>
+    <t>黄灯效应</t>
+  </si>
+  <si>
+    <t>从众效应</t>
+  </si>
+  <si>
+    <t>颂歌效应</t>
+  </si>
+  <si>
+    <t>定型效应</t>
+  </si>
+  <si>
+    <t>新闻效应</t>
+  </si>
+  <si>
+    <t>反衬效应</t>
+  </si>
+  <si>
+    <t>公共管理</t>
+  </si>
+  <si>
+    <t>指以政府为核心的公共管理部门整合社会的各种力量，广泛运用政治、经济、法律的方法，</t>
+  </si>
+  <si>
+    <t>强化政府治理能力，提升政府绩效和公共服务品质，从而实现公共福祉和公共利益的活动</t>
+  </si>
+  <si>
+    <t>基本特征</t>
+  </si>
+  <si>
+    <t>公共性</t>
+  </si>
+  <si>
+    <t>效能性</t>
+  </si>
+  <si>
+    <t>主体的多元性</t>
+  </si>
+  <si>
+    <t>手段的多样性和创新性</t>
+  </si>
+  <si>
+    <t>法治性</t>
+  </si>
+  <si>
+    <t>主体</t>
+  </si>
+  <si>
+    <t>国家政权机关(立法、司法等)，国家行政机关，非营利性质的社会公共组织</t>
+  </si>
+  <si>
+    <t>对象</t>
+  </si>
+  <si>
+    <t>社会公共事务</t>
+  </si>
+  <si>
+    <t>公共资源</t>
+  </si>
+  <si>
+    <t>公共项目</t>
+  </si>
+  <si>
+    <t>社会问题</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>实现公共利益</t>
+  </si>
+  <si>
+    <t>社会成员所共享的资源和条件。公共设施、道路交通、社会治安、保障、教育、医疗等</t>
+  </si>
+  <si>
+    <t>公共政策</t>
+  </si>
+  <si>
+    <t>公共权利机关经由政治过程所选择和制定的为解决公共问题、达成公共目标，实现公共利益的方案</t>
+  </si>
+  <si>
+    <t>按指导作用</t>
+  </si>
+  <si>
+    <t>元(总)政策、基本政策、具体政策</t>
+  </si>
+  <si>
+    <t>按对社会和有关全体影响</t>
+  </si>
+  <si>
+    <t>分配性政策、调节性政策、自我调节性政策、再分配性政策</t>
+  </si>
+  <si>
+    <t>按领域不同</t>
+  </si>
+  <si>
+    <t>政治政策、经济政策、社会政策、文教政策、科技政策</t>
+  </si>
+  <si>
+    <t>导向功能</t>
+  </si>
+  <si>
+    <t>调控功能</t>
+  </si>
+  <si>
+    <t>分配功能</t>
+  </si>
+  <si>
+    <t>创新功能</t>
+  </si>
+  <si>
+    <t>政策评估</t>
+  </si>
+  <si>
+    <t>依据一定的评估标准和程序，由特定的评估主体对公共政策的效果、效率、效益和价值进行判断的一种政治行为</t>
+  </si>
+  <si>
+    <t>作为决策变化、政策改进和制定新政策的依据</t>
+  </si>
+  <si>
+    <t>按评估机构位置</t>
+  </si>
+  <si>
+    <t>内部评估、外部评估</t>
+  </si>
+  <si>
+    <t>按阶段性</t>
+  </si>
+  <si>
+    <t>事前评估、执行评估、事后评估</t>
+  </si>
+  <si>
+    <t>按活动方式</t>
+  </si>
+  <si>
+    <t>正式评估、非正式评估</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>政策投入</t>
+  </si>
+  <si>
+    <t>政策效益</t>
+  </si>
+  <si>
+    <t>政策效率</t>
+  </si>
+  <si>
+    <t>公众回应程度</t>
+  </si>
+  <si>
+    <t>公平标准</t>
+  </si>
+  <si>
+    <t>公共决策</t>
+  </si>
+  <si>
+    <t>公共组织在处理国家政务和社会公共管理过程中，从公共利益、公平、公正出发，依法所作出的决定和行动方案</t>
+  </si>
+  <si>
+    <t>基本原则</t>
+  </si>
+  <si>
+    <t>1.目标原则、2.可行性原则、3.预测原则、4.信息原则、5.优选原则、6.系统原则</t>
+  </si>
+  <si>
+    <t>方法与技术</t>
+  </si>
+  <si>
+    <t>定性决策分析法</t>
+  </si>
+  <si>
+    <t>又叫主观决策方法。有价值分析、可行性分析、德尔菲法、主观概率预测、超理性分析法</t>
+  </si>
+  <si>
+    <t>定量决策分析法</t>
+  </si>
+  <si>
+    <t>预测分析、经济效益分析、回归分析、投入产出分析、模糊分析</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>国家行政机关及其工作人员</t>
+  </si>
+  <si>
+    <t>特点</t>
+  </si>
+  <si>
+    <t>目的性、强制性、时效性、灵活性</t>
+  </si>
+  <si>
+    <t>整体规划和统筹兼顾相结合，原则性和灵活性相结合，执行效率和执行方法相结合</t>
+  </si>
+  <si>
+    <t>公共危机管理</t>
+  </si>
+  <si>
+    <t>公共危机</t>
+  </si>
+  <si>
+    <t>指由突发事件引起，严重威胁危害社会公共利益和安全，引发社会混乱恐慌，需要公共权力、政策、资源紧急应对和处理的危险境况及非常事态</t>
+  </si>
+  <si>
+    <t>造成严重后果</t>
+  </si>
+  <si>
+    <t>作出反应的时间有限</t>
+  </si>
+  <si>
+    <t>事出突然</t>
+  </si>
+  <si>
+    <t>具有意外性</t>
+  </si>
+  <si>
+    <t>按诱因</t>
+  </si>
+  <si>
+    <t>自然灾害、社会事件</t>
+  </si>
+  <si>
+    <t>按性质</t>
+  </si>
+  <si>
+    <t>自然灾害、人为事故(交通、爆炸等)、重大社会事件(恐怖袭击、外敌入侵)</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>I级</t>
+  </si>
+  <si>
+    <t>特别重大</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>II级</t>
+  </si>
+  <si>
+    <t>重大</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>III级</t>
+  </si>
+  <si>
+    <t>较大</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>IV级</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>政府在公共危机事件产生、发展过程中，为减少/消除危机危害，根据危机管理计划和程序采取的对策及管理活动</t>
+  </si>
+  <si>
+    <t>首要目标</t>
+  </si>
+  <si>
+    <t>建立秩序、稳定公众、维持社会经济系统的正常运作</t>
+  </si>
+  <si>
+    <t>原则</t>
+  </si>
+  <si>
+    <t>时间性原则</t>
+  </si>
+  <si>
+    <t>第一原则</t>
+  </si>
+  <si>
+    <t>效率性原则</t>
+  </si>
+  <si>
+    <t>协同性原则</t>
+  </si>
+  <si>
+    <t>科学性原则</t>
+  </si>
+  <si>
+    <t>要点</t>
+  </si>
+  <si>
+    <t>减少、缓解危机</t>
+  </si>
+  <si>
+    <t>动员、准备资源以有效控制危机</t>
+  </si>
+  <si>
+    <t>回应社会与公众的需求</t>
+  </si>
+  <si>
+    <t>危机后的恢复和重建</t>
+  </si>
+  <si>
+    <t>核心框架</t>
+  </si>
+  <si>
+    <t>一案三制</t>
+  </si>
+  <si>
+    <t>一案</t>
+  </si>
+  <si>
+    <t>应急预案</t>
+  </si>
+  <si>
+    <t>三制</t>
+  </si>
+  <si>
+    <t>应急管理体制、运行机制、法制</t>
+  </si>
+  <si>
+    <t>1.政府职能</t>
+  </si>
+  <si>
+    <t>即行政能力。指行政主体作为国家管理的执行机关，在依法对国家政治、经济、社会公共事务进行管理时应承担的职责和所具有的功能</t>
+  </si>
+  <si>
+    <t>政治职能</t>
+  </si>
+  <si>
+    <t>军事保卫、社会治安、民主政治、外交等</t>
+  </si>
+  <si>
+    <t>经济职能</t>
+  </si>
+  <si>
+    <t>经济市场</t>
+  </si>
+  <si>
+    <t>文化职能</t>
+  </si>
+  <si>
+    <t>发展科学技术、文化体育卫生、教育等</t>
+  </si>
+  <si>
+    <t>社会职能</t>
+  </si>
+  <si>
+    <t>社会保障、福利、救助、生态保护、社区建设等</t>
+  </si>
+  <si>
+    <t>运行职能</t>
+  </si>
+  <si>
+    <t>计划职能</t>
+  </si>
+  <si>
+    <t>管理的核心</t>
+  </si>
+  <si>
+    <t>组织职能</t>
+  </si>
+  <si>
+    <t>实现政府管理目标和效能的关键性职能</t>
+  </si>
+  <si>
+    <t>协调职能</t>
+  </si>
+  <si>
+    <t>控制职能</t>
+  </si>
+  <si>
+    <t>职能转变</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>措施</t>
+  </si>
+  <si>
+    <t>2.行政组织</t>
+  </si>
+  <si>
+    <t>领导机关</t>
+  </si>
+  <si>
+    <t>职能机关</t>
+  </si>
+  <si>
+    <t>办事机关</t>
+  </si>
+  <si>
+    <t>参谋咨询机关</t>
+  </si>
+  <si>
+    <t>直属机关</t>
+  </si>
+  <si>
+    <t>派出机关</t>
+  </si>
+  <si>
+    <t>行政组织结构</t>
+  </si>
+  <si>
+    <t>纵向结构</t>
+  </si>
+  <si>
+    <t>横向结构</t>
+  </si>
+  <si>
+    <t>3.行政领导</t>
+  </si>
+  <si>
+    <t>领导方式</t>
+  </si>
+  <si>
+    <t>集中领导方式</t>
+  </si>
+  <si>
+    <t>民主领导方式</t>
+  </si>
+  <si>
+    <t>法治领导方式</t>
+  </si>
+  <si>
+    <t>4.行政监督</t>
+  </si>
+  <si>
+    <t>内部行政监督</t>
+  </si>
+  <si>
+    <t>一般监督</t>
+  </si>
+  <si>
+    <t>审计监督</t>
+  </si>
+  <si>
+    <t>外部行政监督</t>
+  </si>
+  <si>
+    <t>立法监督</t>
+  </si>
+  <si>
+    <t>司法监督</t>
+  </si>
+  <si>
+    <t>检察监督</t>
+  </si>
+  <si>
+    <t>政党监督</t>
+  </si>
+  <si>
+    <t>社会监督</t>
   </si>
 </sst>
 </file>
@@ -255,12 +836,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,44 +864,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -329,37 +872,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,10 +887,55 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,10 +948,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,8 +986,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,7 +1009,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +1087,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +1117,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +1147,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,127 +1171,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,56 +1197,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,6 +1230,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -723,161 +1297,164 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1198,465 +1775,1695 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:5">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="3:5">
-      <c r="C2" s="1"/>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s">
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="3"/>
-      <c r="D10" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="3"/>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-      <c r="E13" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-      <c r="E14" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
-      <c r="F19" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="3:7">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="3:7">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
+    <row r="41" spans="3:5">
+      <c r="C41" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" t="s">
+      <c r="D41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
-      <c r="C43" t="s">
+    <row r="42" spans="4:5">
+      <c r="D42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
-      <c r="D47" t="s">
-        <v>5</v>
+    <row r="46" spans="4:6">
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6">
+      <c r="E47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6">
+      <c r="E48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="3"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="3"/>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="26">
+    <mergeCell ref="B1:B49"/>
+    <mergeCell ref="B50:B69"/>
     <mergeCell ref="C1:C8"/>
     <mergeCell ref="C9:C28"/>
     <mergeCell ref="C29:C40"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C59:C69"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="D22:D28"/>
     <mergeCell ref="D30:D40"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D69"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E23:E28"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
     <mergeCell ref="F34:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:H61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="16384" width="8.66666666666667" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5">
+      <c r="C2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="3"/>
+      <c r="D33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C14:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C61"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D49"/>
+    <mergeCell ref="D50:D61"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="3" width="8.66666666666667" style="1"/>
+    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.66666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:6">
+      <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="4:9">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D1:D12"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F33"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>